--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S4/S4_dampingfactor.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S4/S4_dampingfactor.xlsx
@@ -14,246 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temperature (Celsius)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>93.73491271820448</t>
-  </si>
-  <si>
-    <t>94.84768079800499</t>
-  </si>
-  <si>
-    <t>96.29219259543449</t>
-  </si>
-  <si>
-    <t>97.63790523690773</t>
-  </si>
-  <si>
-    <t>98.21788386177413</t>
-  </si>
-  <si>
-    <t>99.36026600166251</t>
-  </si>
-  <si>
-    <t>98.96658354114713</t>
-  </si>
-  <si>
-    <t>100.74869967937299</t>
-  </si>
-  <si>
-    <t>102.22922693266833</t>
-  </si>
-  <si>
-    <t>103.67600997506234</t>
-  </si>
-  <si>
-    <t>104.94563591022444</t>
-  </si>
-  <si>
-    <t>106.11027985591576</t>
-  </si>
-  <si>
-    <t>107.45536159600996</t>
-  </si>
-  <si>
-    <t>109.0793017456359</t>
-  </si>
-  <si>
-    <t>110.70324189526184</t>
-  </si>
-  <si>
-    <t>112.32718204488778</t>
-  </si>
-  <si>
-    <t>113.95112219451372</t>
-  </si>
-  <si>
-    <t>115.57506234413964</t>
-  </si>
-  <si>
-    <t>117.19900249376559</t>
-  </si>
-  <si>
-    <t>118.82294264339151</t>
-  </si>
-  <si>
-    <t>120.44688279301745</t>
-  </si>
-  <si>
-    <t>122.07082294264339</t>
-  </si>
-  <si>
-    <t>123.69476309226931</t>
-  </si>
-  <si>
-    <t>125.31870324189526</t>
-  </si>
-  <si>
-    <t>126.94264339152119</t>
-  </si>
-  <si>
-    <t>128.5665835411471</t>
-  </si>
-  <si>
-    <t>130.19052369077306</t>
-  </si>
-  <si>
-    <t>131.81446384039901</t>
-  </si>
-  <si>
-    <t>133.43840399002494</t>
-  </si>
-  <si>
-    <t>135.06234413965086</t>
-  </si>
-  <si>
-    <t>136.6862842892768</t>
-  </si>
-  <si>
-    <t>138.31022443890274</t>
-  </si>
-  <si>
-    <t>139.9341645885287</t>
-  </si>
-  <si>
-    <t>141.5581047381546</t>
-  </si>
-  <si>
-    <t>143.18204488778053</t>
-  </si>
-  <si>
-    <t>144.80598503740646</t>
-  </si>
-  <si>
-    <t>146.4299251870324</t>
-  </si>
-  <si>
-    <t>148.05386533665836</t>
-  </si>
-  <si>
-    <t>149.530174563591</t>
-  </si>
-  <si>
-    <t>0.03447712902881399</t>
-  </si>
-  <si>
-    <t>0.04061902830074086</t>
-  </si>
-  <si>
-    <t>0.048217761487997515</t>
-  </si>
-  <si>
-    <t>0.061878571806692824</t>
-  </si>
-  <si>
-    <t>0.07450762991700108</t>
-  </si>
-  <si>
-    <t>0.0957070975038279</t>
-  </si>
-  <si>
-    <t>0.07443679988454992</t>
-  </si>
-  <si>
-    <t>0.11847353259122036</t>
-  </si>
-  <si>
-    <t>0.15984212011915735</t>
-  </si>
-  <si>
-    <t>0.2023327530328481</t>
-  </si>
-  <si>
-    <t>0.2540708483025979</t>
-  </si>
-  <si>
-    <t>0.31202719679080854</t>
-  </si>
-  <si>
-    <t>0.40835150190331215</t>
-  </si>
-  <si>
-    <t>0.5074064525679519</t>
-  </si>
-  <si>
-    <t>0.5502890857424162</t>
-  </si>
-  <si>
-    <t>0.5741902590393981</t>
-  </si>
-  <si>
-    <t>0.5843351496187242</t>
-  </si>
-  <si>
-    <t>0.5769627451131443</t>
-  </si>
-  <si>
-    <t>0.5486239434094793</t>
-  </si>
-  <si>
-    <t>0.5235946665197615</t>
-  </si>
-  <si>
-    <t>0.49353553963473473</t>
-  </si>
-  <si>
-    <t>0.45492465055684606</t>
-  </si>
-  <si>
-    <t>0.43192772040199473</t>
-  </si>
-  <si>
-    <t>0.402281271968283</t>
-  </si>
-  <si>
-    <t>0.3890056630904347</t>
-  </si>
-  <si>
-    <t>0.37463526381803597</t>
-  </si>
-  <si>
-    <t>0.3734388070731364</t>
-  </si>
-  <si>
-    <t>0.3643995484937081</t>
-  </si>
-  <si>
-    <t>0.35731936801109676</t>
-  </si>
-  <si>
-    <t>0.35510484010375987</t>
-  </si>
-  <si>
-    <t>0.3624605039907117</t>
-  </si>
-  <si>
-    <t>0.3693341408176404</t>
-  </si>
-  <si>
-    <t>0.3674798348741487</t>
-  </si>
-  <si>
-    <t>0.37283450172958343</t>
-  </si>
-  <si>
-    <t>0.381549635449156</t>
-  </si>
-  <si>
-    <t>0.38667429599344844</t>
-  </si>
-  <si>
-    <t>0.39257573162627857</t>
-  </si>
-  <si>
-    <t>0.4010515631621274</t>
-  </si>
-  <si>
-    <t>0.40831834801570943</t>
+    <t>Damping factor</t>
   </si>
 </sst>
 </file>
@@ -626,315 +392,315 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
+      <c r="A2">
+        <v>93.73491271820448</v>
+      </c>
+      <c r="B2">
+        <v>0.03447712902881399</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
+      <c r="A3">
+        <v>94.84768079800499</v>
+      </c>
+      <c r="B3">
+        <v>0.04061902830074086</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
+      <c r="A4">
+        <v>96.29219259543449</v>
+      </c>
+      <c r="B4">
+        <v>0.04821776148799752</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
+      <c r="A5">
+        <v>97.63790523690773</v>
+      </c>
+      <c r="B5">
+        <v>0.06187857180669282</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
+      <c r="A6">
+        <v>98.21788386177413</v>
+      </c>
+      <c r="B6">
+        <v>0.07450762991700108</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
+      <c r="A7">
+        <v>99.36026600166251</v>
+      </c>
+      <c r="B7">
+        <v>0.0957070975038279</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
+      <c r="A8">
+        <v>98.96658354114713</v>
+      </c>
+      <c r="B8">
+        <v>0.07443679988454992</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
+      <c r="A9">
+        <v>100.748699679373</v>
+      </c>
+      <c r="B9">
+        <v>0.1184735325912204</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
+      <c r="A10">
+        <v>102.2292269326683</v>
+      </c>
+      <c r="B10">
+        <v>0.1598421201191574</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
+      <c r="A11">
+        <v>103.6760099750623</v>
+      </c>
+      <c r="B11">
+        <v>0.2023327530328481</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
+      <c r="A12">
+        <v>104.9456359102244</v>
+      </c>
+      <c r="B12">
+        <v>0.2540708483025979</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
+      <c r="A13">
+        <v>106.1102798559158</v>
+      </c>
+      <c r="B13">
+        <v>0.3120271967908085</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
+      <c r="A14">
+        <v>107.45536159601</v>
+      </c>
+      <c r="B14">
+        <v>0.4083515019033122</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
+      <c r="A15">
+        <v>109.0793017456359</v>
+      </c>
+      <c r="B15">
+        <v>0.5074064525679519</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
+      <c r="A16">
+        <v>110.7032418952618</v>
+      </c>
+      <c r="B16">
+        <v>0.5502890857424162</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
+      <c r="A17">
+        <v>112.3271820448878</v>
+      </c>
+      <c r="B17">
+        <v>0.5741902590393981</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
+      <c r="A18">
+        <v>113.9511221945137</v>
+      </c>
+      <c r="B18">
+        <v>0.5843351496187242</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>58</v>
+      <c r="A19">
+        <v>115.5750623441396</v>
+      </c>
+      <c r="B19">
+        <v>0.5769627451131443</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>59</v>
+      <c r="A20">
+        <v>117.1990024937656</v>
+      </c>
+      <c r="B20">
+        <v>0.5486239434094793</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>60</v>
+      <c r="A21">
+        <v>118.8229426433915</v>
+      </c>
+      <c r="B21">
+        <v>0.5235946665197615</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
+      <c r="A22">
+        <v>120.4468827930175</v>
+      </c>
+      <c r="B22">
+        <v>0.4935355396347347</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
+      <c r="A23">
+        <v>122.0708229426434</v>
+      </c>
+      <c r="B23">
+        <v>0.4549246505568461</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>63</v>
+      <c r="A24">
+        <v>123.6947630922693</v>
+      </c>
+      <c r="B24">
+        <v>0.4319277204019947</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
+      <c r="A25">
+        <v>125.3187032418953</v>
+      </c>
+      <c r="B25">
+        <v>0.402281271968283</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>65</v>
+      <c r="A26">
+        <v>126.9426433915212</v>
+      </c>
+      <c r="B26">
+        <v>0.3890056630904347</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
+      <c r="A27">
+        <v>128.5665835411471</v>
+      </c>
+      <c r="B27">
+        <v>0.374635263818036</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>67</v>
+      <c r="A28">
+        <v>130.1905236907731</v>
+      </c>
+      <c r="B28">
+        <v>0.3734388070731364</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>68</v>
+      <c r="A29">
+        <v>131.814463840399</v>
+      </c>
+      <c r="B29">
+        <v>0.3643995484937081</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>69</v>
+      <c r="A30">
+        <v>133.4384039900249</v>
+      </c>
+      <c r="B30">
+        <v>0.3573193680110968</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>70</v>
+      <c r="A31">
+        <v>135.0623441396509</v>
+      </c>
+      <c r="B31">
+        <v>0.3551048401037599</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>71</v>
+      <c r="A32">
+        <v>136.6862842892768</v>
+      </c>
+      <c r="B32">
+        <v>0.3624605039907117</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>72</v>
+      <c r="A33">
+        <v>138.3102244389027</v>
+      </c>
+      <c r="B33">
+        <v>0.3693341408176404</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>73</v>
+      <c r="A34">
+        <v>139.9341645885287</v>
+      </c>
+      <c r="B34">
+        <v>0.3674798348741487</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>74</v>
+      <c r="A35">
+        <v>141.5581047381546</v>
+      </c>
+      <c r="B35">
+        <v>0.3728345017295834</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
+      <c r="A36">
+        <v>143.1820448877805</v>
+      </c>
+      <c r="B36">
+        <v>0.381549635449156</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
+      <c r="A37">
+        <v>144.8059850374065</v>
+      </c>
+      <c r="B37">
+        <v>0.3866742959934484</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>77</v>
+      <c r="A38">
+        <v>146.4299251870324</v>
+      </c>
+      <c r="B38">
+        <v>0.3925757316262786</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>78</v>
+      <c r="A39">
+        <v>148.0538653366584</v>
+      </c>
+      <c r="B39">
+        <v>0.4010515631621274</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>79</v>
+      <c r="A40">
+        <v>149.530174563591</v>
+      </c>
+      <c r="B40">
+        <v>0.4083183480157094</v>
       </c>
     </row>
   </sheetData>
